--- a/teacher_schedule/2025春期講習日程(講師) (1).xlsx
+++ b/teacher_schedule/2025春期講習日程(講師) (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="868" firstSheet="1" activeTab="13"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="868" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="講師用" sheetId="1" r:id="rId1"/>
@@ -9031,7 +9031,7 @@
   <sheetPr/>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A15" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
@@ -11509,8 +11509,8 @@
   <sheetPr/>
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView zoomScale="235" zoomScaleNormal="235" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
